--- a/data/summary-data.xlsx
+++ b/data/summary-data.xlsx
@@ -111,6 +111,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -132,6 +133,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,11 +220,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,11 +252,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,14 +276,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -290,27 +288,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,19 +320,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,19 +368,19 @@
   <dimension ref="B1:M35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
+      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="9.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="3" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="3" width="9.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,70 +456,73 @@
       <c r="H5" s="13" t="n">
         <v>10.9060309903903</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="I5" s="14"/>
+      <c r="J5" s="15" t="n">
         <v>0.724492</v>
       </c>
-      <c r="K5" s="14" t="n">
+      <c r="K5" s="15" t="n">
         <v>0.7962522</v>
       </c>
-      <c r="L5" s="14" t="n">
+      <c r="L5" s="15" t="n">
         <v>0.5405965</v>
       </c>
-      <c r="M5" s="14" t="n">
+      <c r="M5" s="15" t="n">
         <v>0.728</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18" t="n">
+      <c r="D6" s="18"/>
+      <c r="E6" s="13" t="n">
         <v>1.23258549242496</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="13" t="n">
         <v>17.2051104531997</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="13" t="n">
         <v>4.01467090054239</v>
       </c>
       <c r="H6" s="13" t="n">
         <v>7.12917743088001</v>
       </c>
+      <c r="I6" s="14"/>
       <c r="J6" s="19" t="n">
         <v>0.693189218954447</v>
       </c>
-      <c r="K6" s="20" t="n">
+      <c r="K6" s="19" t="n">
         <v>0.819765007254952</v>
       </c>
       <c r="L6" s="19" t="n">
         <v>0.484455933112676</v>
       </c>
-      <c r="M6" s="10" t="n">
+      <c r="M6" s="19" t="n">
         <v>0.678379654764113</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="n">
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="n">
         <v>2.292207425267</v>
       </c>
-      <c r="F7" s="22" t="n">
+      <c r="F7" s="21" t="n">
         <v>18.3188514186221</v>
       </c>
-      <c r="G7" s="22" t="n">
+      <c r="G7" s="21" t="n">
         <v>5.11927416627387</v>
       </c>
-      <c r="H7" s="23" t="n">
+      <c r="H7" s="21" t="n">
         <v>8.99989239947464</v>
       </c>
+      <c r="I7" s="14"/>
       <c r="J7" s="19" t="n">
         <v>0.747322396862403</v>
       </c>
@@ -556,23 +537,24 @@
       </c>
     </row>
     <row r="8" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22" t="n">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="n">
         <v>3.7196720952973</v>
       </c>
-      <c r="F8" s="22" t="n">
+      <c r="F8" s="21" t="n">
         <v>14.5640535820385</v>
       </c>
-      <c r="G8" s="22" t="n">
+      <c r="G8" s="21" t="n">
         <v>6.14260795272507</v>
       </c>
-      <c r="H8" s="23" t="n">
+      <c r="H8" s="21" t="n">
         <v>9.68894532148249</v>
       </c>
+      <c r="I8" s="14"/>
       <c r="J8" s="19" t="n">
         <v>0.718697214228238</v>
       </c>
@@ -587,23 +569,24 @@
       </c>
     </row>
     <row r="9" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22" t="n">
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="n">
         <v>6.2943094629156</v>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="21" t="n">
         <v>15.9237012051409</v>
       </c>
-      <c r="G9" s="22" t="n">
+      <c r="G9" s="21" t="n">
         <v>6.6550802859159</v>
       </c>
-      <c r="H9" s="23" t="n">
+      <c r="H9" s="21" t="n">
         <v>12.3246991637773</v>
       </c>
+      <c r="I9" s="14"/>
       <c r="J9" s="19" t="n">
         <v>0.69508896911087</v>
       </c>
@@ -618,23 +601,24 @@
       </c>
     </row>
     <row r="10" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="22" t="n">
+      <c r="D10" s="22"/>
+      <c r="E10" s="21" t="n">
         <v>5.23828772282199</v>
       </c>
-      <c r="F10" s="22" t="n">
+      <c r="F10" s="21" t="n">
         <v>19.099073470173</v>
       </c>
-      <c r="G10" s="22" t="n">
+      <c r="G10" s="21" t="n">
         <v>9.35763400860146</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="21" t="n">
         <v>16.4564412937062</v>
       </c>
+      <c r="I10" s="14"/>
       <c r="J10" s="19" t="n">
         <v>0.789054983278406</v>
       </c>
@@ -649,89 +633,92 @@
       </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="13" t="n">
         <v>4.318618</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="13" t="n">
         <v>19.772238</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="13" t="n">
         <v>6.399342</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="13" t="n">
         <v>14.1681777477553</v>
       </c>
-      <c r="J11" s="26" t="n">
+      <c r="I11" s="14"/>
+      <c r="J11" s="23" t="n">
         <v>0.7373879</v>
       </c>
-      <c r="K11" s="26" t="n">
+      <c r="K11" s="23" t="n">
         <v>0.7841673</v>
       </c>
-      <c r="L11" s="26" t="n">
+      <c r="L11" s="23" t="n">
         <v>0.570221</v>
       </c>
-      <c r="M11" s="26" t="n">
+      <c r="M11" s="23" t="n">
         <v>0.74321704856857</v>
       </c>
     </row>
     <row r="12" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="21" t="n">
         <v>3.035877</v>
       </c>
-      <c r="F12" s="22" t="n">
+      <c r="F12" s="21" t="n">
         <v>16.721246</v>
       </c>
-      <c r="G12" s="22" t="n">
+      <c r="G12" s="21" t="n">
         <v>5.675056</v>
       </c>
-      <c r="H12" s="22" t="n">
+      <c r="H12" s="21" t="n">
         <v>10.5191356354655</v>
       </c>
-      <c r="J12" s="27" t="n">
+      <c r="I12" s="14"/>
+      <c r="J12" s="24" t="n">
         <v>0.7231224</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="24" t="n">
         <v>0.7980043</v>
       </c>
-      <c r="L12" s="27" t="n">
+      <c r="L12" s="24" t="n">
         <v>0.5379673</v>
       </c>
-      <c r="M12" s="28" t="n">
+      <c r="M12" s="24" t="n">
         <v>0.72653183416789</v>
       </c>
     </row>
     <row r="13" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="18" t="n">
+      <c r="E13" s="13" t="n">
         <v>3.499265</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="13" t="n">
         <v>18.540872</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="13" t="n">
         <v>5.829279</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="13" t="n">
         <v>12.4154988466998</v>
       </c>
+      <c r="I13" s="14"/>
       <c r="J13" s="19" t="n">
         <v>0.7234198</v>
       </c>
@@ -746,23 +733,24 @@
       </c>
     </row>
     <row r="14" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="29"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32" t="n">
+      <c r="D14" s="27"/>
+      <c r="E14" s="28" t="n">
         <v>3.067402</v>
       </c>
-      <c r="F14" s="32" t="n">
+      <c r="F14" s="28" t="n">
         <v>16.723919</v>
       </c>
-      <c r="G14" s="32" t="n">
+      <c r="G14" s="28" t="n">
         <v>5.716403</v>
       </c>
-      <c r="H14" s="32" t="n">
+      <c r="H14" s="28" t="n">
         <v>10.5462478968158</v>
       </c>
+      <c r="I14" s="14"/>
       <c r="J14" s="19" t="n">
         <v>0.7247386</v>
       </c>
@@ -772,94 +760,97 @@
       <c r="L14" s="19" t="n">
         <v>0.5399156</v>
       </c>
-      <c r="M14" s="10" t="n">
+      <c r="M14" s="19" t="n">
         <v>0.726613991771648</v>
       </c>
     </row>
     <row r="15" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="21" t="n">
         <v>3.699212</v>
       </c>
-      <c r="F15" s="22" t="n">
+      <c r="F15" s="21" t="n">
         <v>16.477466</v>
       </c>
-      <c r="G15" s="22" t="n">
+      <c r="G15" s="21" t="n">
         <v>5.872095</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="21" t="n">
         <v>11.5992412396953</v>
       </c>
-      <c r="J15" s="26" t="n">
+      <c r="I15" s="14"/>
+      <c r="J15" s="23" t="n">
         <v>0.7313826</v>
       </c>
-      <c r="K15" s="26" t="n">
+      <c r="K15" s="23" t="n">
         <v>0.8014348</v>
       </c>
-      <c r="L15" s="26" t="n">
+      <c r="L15" s="23" t="n">
         <v>0.5556133</v>
       </c>
-      <c r="M15" s="26" t="n">
+      <c r="M15" s="23" t="n">
         <v>0.741320009620073</v>
       </c>
     </row>
     <row r="16" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="21" t="n">
         <v>3.111834</v>
       </c>
-      <c r="F16" s="22" t="n">
+      <c r="F16" s="21" t="n">
         <v>17.167089</v>
       </c>
-      <c r="G16" s="22" t="n">
+      <c r="G16" s="21" t="n">
         <v>5.723103</v>
       </c>
-      <c r="H16" s="22" t="n">
+      <c r="H16" s="21" t="n">
         <v>10.8478699743721</v>
       </c>
-      <c r="J16" s="27" t="n">
+      <c r="I16" s="14"/>
+      <c r="J16" s="24" t="n">
         <v>0.7239673</v>
       </c>
-      <c r="K16" s="27" t="n">
+      <c r="K16" s="24" t="n">
         <v>0.7957566</v>
       </c>
-      <c r="L16" s="27" t="n">
+      <c r="L16" s="24" t="n">
         <v>0.5393587</v>
       </c>
-      <c r="M16" s="28" t="n">
+      <c r="M16" s="24" t="n">
         <v>0.727235128221959</v>
       </c>
     </row>
     <row r="17" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18" t="n">
+      <c r="D17" s="18"/>
+      <c r="E17" s="13" t="n">
         <v>2.877509</v>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="13" t="n">
         <v>16.856375</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="13" t="n">
         <v>6.00741</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="13" t="n">
         <v>10.675915300984</v>
       </c>
+      <c r="I17" s="14"/>
       <c r="J17" s="19" t="n">
         <v>0.7061188</v>
       </c>
@@ -874,23 +865,24 @@
       </c>
     </row>
     <row r="18" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="32" t="n">
+      <c r="E18" s="28" t="n">
         <v>3.178269</v>
       </c>
-      <c r="F18" s="32" t="n">
+      <c r="F18" s="28" t="n">
         <v>17.13502</v>
       </c>
-      <c r="G18" s="32" t="n">
+      <c r="G18" s="28" t="n">
         <v>5.704684</v>
       </c>
-      <c r="H18" s="32" t="n">
+      <c r="H18" s="28" t="n">
         <v>10.9321460881568</v>
       </c>
+      <c r="I18" s="14"/>
       <c r="J18" s="19" t="n">
         <v>0.7266448</v>
       </c>
@@ -905,89 +897,92 @@
       </c>
     </row>
     <row r="19" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="22" t="n">
+      <c r="D19" s="18"/>
+      <c r="E19" s="21" t="n">
         <v>3.540811</v>
       </c>
-      <c r="F19" s="22" t="n">
+      <c r="F19" s="21" t="n">
         <v>15.824132</v>
       </c>
-      <c r="G19" s="22" t="n">
+      <c r="G19" s="21" t="n">
         <v>5.783861</v>
       </c>
-      <c r="H19" s="22" t="n">
+      <c r="H19" s="21" t="n">
         <v>10.7263642698559</v>
       </c>
-      <c r="J19" s="26" t="n">
+      <c r="I19" s="14"/>
+      <c r="J19" s="23" t="n">
         <v>0.7309767</v>
       </c>
-      <c r="K19" s="26" t="n">
+      <c r="K19" s="23" t="n">
         <v>0.8046769</v>
       </c>
-      <c r="L19" s="26" t="n">
+      <c r="L19" s="23" t="n">
         <v>0.5648034</v>
       </c>
-      <c r="M19" s="26" t="n">
+      <c r="M19" s="23" t="n">
         <v>0.748393663999057</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="22" t="n">
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="n">
         <v>3.077654</v>
       </c>
-      <c r="F20" s="22" t="n">
+      <c r="F20" s="21" t="n">
         <v>17.349091</v>
       </c>
-      <c r="G20" s="22" t="n">
+      <c r="G20" s="21" t="n">
         <v>5.727621</v>
       </c>
-      <c r="H20" s="9" t="n">
+      <c r="H20" s="21" t="n">
         <v>10.9373333421499</v>
       </c>
-      <c r="J20" s="27" t="n">
+      <c r="I20" s="14"/>
+      <c r="J20" s="24" t="n">
         <v>0.7232992</v>
       </c>
-      <c r="K20" s="27" t="n">
+      <c r="K20" s="24" t="n">
         <v>0.7946631</v>
       </c>
-      <c r="L20" s="27" t="n">
+      <c r="L20" s="24" t="n">
         <v>0.5371891</v>
       </c>
-      <c r="M20" s="28" t="n">
+      <c r="M20" s="24" t="n">
         <v>0.724837799099804</v>
       </c>
     </row>
     <row r="21" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="18" t="n">
+      <c r="E21" s="13" t="n">
         <v>3.294679</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="13" t="n">
         <v>18.397127</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="G21" s="13" t="n">
         <v>5.855042</v>
       </c>
-      <c r="H21" s="18" t="n">
+      <c r="H21" s="13" t="n">
         <v>11.4764572338694</v>
       </c>
+      <c r="I21" s="14"/>
       <c r="J21" s="19" t="n">
         <v>0.7330492</v>
       </c>
@@ -997,28 +992,29 @@
       <c r="L21" s="19" t="n">
         <v>0.5251753</v>
       </c>
-      <c r="M21" s="10" t="n">
+      <c r="M21" s="19" t="n">
         <v>0.71072779348148</v>
       </c>
     </row>
     <row r="22" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="33"/>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32" t="n">
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="n">
         <v>3.09353</v>
       </c>
-      <c r="F22" s="32" t="n">
+      <c r="F22" s="28" t="n">
         <v>16.588056</v>
       </c>
-      <c r="G22" s="32" t="n">
+      <c r="G22" s="28" t="n">
         <v>5.664217</v>
       </c>
-      <c r="H22" s="34" t="n">
+      <c r="H22" s="28" t="n">
         <v>10.6639094741159</v>
       </c>
+      <c r="I22" s="14"/>
       <c r="J22" s="19" t="n">
         <v>0.7214969</v>
       </c>
@@ -1033,89 +1029,92 @@
       </c>
     </row>
     <row r="23" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="22" t="n">
+      <c r="E23" s="21" t="n">
         <v>3.618695</v>
       </c>
-      <c r="F23" s="22" t="n">
+      <c r="F23" s="21" t="n">
         <v>16.060096</v>
       </c>
-      <c r="G23" s="22" t="n">
+      <c r="G23" s="21" t="n">
         <v>6.23706</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="21" t="n">
         <v>11.1437237265672</v>
       </c>
-      <c r="J23" s="26" t="n">
+      <c r="I23" s="14"/>
+      <c r="J23" s="23" t="n">
         <v>0.7204663</v>
       </c>
-      <c r="K23" s="26" t="n">
+      <c r="K23" s="23" t="n">
         <v>0.8012008</v>
       </c>
-      <c r="L23" s="26" t="n">
+      <c r="L23" s="23" t="n">
         <v>0.5636631</v>
       </c>
-      <c r="M23" s="26" t="n">
+      <c r="M23" s="23" t="n">
         <v>0.741869393893533</v>
       </c>
     </row>
     <row r="24" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="35"/>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32" t="n">
+      <c r="D24" s="27"/>
+      <c r="E24" s="28" t="n">
         <v>3.003388</v>
       </c>
-      <c r="F24" s="32" t="n">
+      <c r="F24" s="28" t="n">
         <v>17.529446</v>
       </c>
-      <c r="G24" s="32" t="n">
+      <c r="G24" s="28" t="n">
         <v>5.570848</v>
       </c>
-      <c r="H24" s="32" t="n">
+      <c r="H24" s="28" t="n">
         <v>10.8208980006824</v>
       </c>
-      <c r="J24" s="27" t="n">
+      <c r="I24" s="14"/>
+      <c r="J24" s="24" t="n">
         <v>0.7258278</v>
       </c>
-      <c r="K24" s="27" t="n">
+      <c r="K24" s="24" t="n">
         <v>0.7942581</v>
       </c>
-      <c r="L24" s="27" t="n">
+      <c r="L24" s="24" t="n">
         <v>0.5332463</v>
       </c>
-      <c r="M24" s="28" t="n">
+      <c r="M24" s="24" t="n">
         <v>0.723395160623953</v>
       </c>
     </row>
     <row r="25" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="22" t="n">
+      <c r="E25" s="21" t="n">
         <v>4.125076</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="21" t="n">
         <v>18.112784</v>
       </c>
-      <c r="G25" s="22" t="n">
+      <c r="G25" s="21" t="n">
         <v>6.045379</v>
       </c>
-      <c r="H25" s="9" t="n">
+      <c r="H25" s="21" t="n">
         <v>12.2158625403504</v>
       </c>
+      <c r="I25" s="14"/>
       <c r="J25" s="19" t="n">
         <v>0.7543681</v>
       </c>
@@ -1130,23 +1129,24 @@
       </c>
     </row>
     <row r="26" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="21"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="22" t="n">
+      <c r="E26" s="21" t="n">
         <v>3.069943</v>
       </c>
-      <c r="F26" s="22" t="n">
+      <c r="F26" s="21" t="n">
         <v>17.029203</v>
       </c>
-      <c r="G26" s="22" t="n">
+      <c r="G26" s="21" t="n">
         <v>5.719651</v>
       </c>
-      <c r="H26" s="22" t="n">
+      <c r="H26" s="21" t="n">
         <v>10.8130698990176</v>
       </c>
+      <c r="I26" s="14"/>
       <c r="J26" s="19" t="n">
         <v>0.7221015</v>
       </c>
@@ -1156,94 +1156,97 @@
       <c r="L26" s="19" t="n">
         <v>0.5410505</v>
       </c>
-      <c r="M26" s="10" t="n">
+      <c r="M26" s="19" t="n">
         <v>0.726541873234017</v>
       </c>
     </row>
     <row r="27" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18" t="n">
+      <c r="D27" s="18"/>
+      <c r="E27" s="13" t="n">
         <v>2.990813</v>
       </c>
-      <c r="F27" s="18" t="n">
+      <c r="F27" s="13" t="n">
         <v>16.389283</v>
       </c>
-      <c r="G27" s="18" t="n">
+      <c r="G27" s="13" t="n">
         <v>5.216903</v>
       </c>
-      <c r="H27" s="18" t="n">
+      <c r="H27" s="13" t="n">
         <v>9.95528251325108</v>
       </c>
-      <c r="J27" s="26" t="n">
+      <c r="I27" s="14"/>
+      <c r="J27" s="23" t="n">
         <v>0.7069201</v>
       </c>
-      <c r="K27" s="26" t="n">
+      <c r="K27" s="23" t="n">
         <v>0.7994436</v>
       </c>
-      <c r="L27" s="26" t="n">
+      <c r="L27" s="23" t="n">
         <v>0.5100871</v>
       </c>
-      <c r="M27" s="36" t="n">
+      <c r="M27" s="23" t="n">
         <v>0.722465925633259</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="29"/>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="32" t="n">
+      <c r="E28" s="28" t="n">
         <v>3.488376</v>
       </c>
-      <c r="F28" s="32" t="n">
+      <c r="F28" s="28" t="n">
         <v>18.006538</v>
       </c>
-      <c r="G28" s="32" t="n">
+      <c r="G28" s="28" t="n">
         <v>6.365373</v>
       </c>
-      <c r="H28" s="34" t="n">
+      <c r="H28" s="28" t="n">
         <v>12.273623562169</v>
       </c>
-      <c r="J28" s="27" t="n">
+      <c r="I28" s="14"/>
+      <c r="J28" s="24" t="n">
         <v>0.7558031</v>
       </c>
-      <c r="K28" s="27" t="n">
+      <c r="K28" s="24" t="n">
         <v>0.7922321</v>
       </c>
-      <c r="L28" s="27" t="n">
+      <c r="L28" s="24" t="n">
         <v>0.5744438</v>
       </c>
-      <c r="M28" s="27" t="n">
+      <c r="M28" s="24" t="n">
         <v>0.736144475038222</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="E29" s="22" t="n">
+      <c r="E29" s="21" t="n">
         <v>3.752508</v>
       </c>
-      <c r="F29" s="22" t="n">
+      <c r="F29" s="21" t="n">
         <v>15.472653</v>
       </c>
-      <c r="G29" s="22" t="n">
+      <c r="G29" s="21" t="n">
         <v>6.128985</v>
       </c>
-      <c r="H29" s="9" t="n">
+      <c r="H29" s="21" t="n">
         <v>10.98008145499</v>
       </c>
+      <c r="I29" s="14"/>
       <c r="J29" s="19" t="n">
         <v>0.7432221</v>
       </c>
@@ -1258,23 +1261,24 @@
       </c>
     </row>
     <row r="30" s="7" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="37"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="22" t="n">
+      <c r="E30" s="21" t="n">
         <v>3.022588</v>
       </c>
-      <c r="F30" s="22" t="n">
+      <c r="F30" s="21" t="n">
         <v>17.535231</v>
       </c>
-      <c r="G30" s="22" t="n">
+      <c r="G30" s="21" t="n">
         <v>5.667272</v>
       </c>
-      <c r="H30" s="22" t="n">
+      <c r="H30" s="21" t="n">
         <v>10.88932851538</v>
       </c>
+      <c r="I30" s="14"/>
       <c r="J30" s="19" t="n">
         <v>0.7201976</v>
       </c>
@@ -1284,24 +1288,24 @@
       <c r="L30" s="19" t="n">
         <v>0.5361457</v>
       </c>
-      <c r="M30" s="10" t="n">
+      <c r="M30" s="19" t="n">
         <v>0.721703147762689</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1321,6 +1325,30 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B35:C35"/>
   </mergeCells>
+  <conditionalFormatting sqref="H5:H30">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="10.91"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF6D6D"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FF729FCF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M30">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="73"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF729FCF"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFF6D6D"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
